--- a/input/report/输入-报告_副本.xlsx
+++ b/input/report/输入-报告_副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwy/Sites/agenda-tool/input/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EADB60-17C0-5941-9031-2C385D921085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04B8752-922C-FB49-A835-84A3818B371A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="2300" windowWidth="27840" windowHeight="16940" xr2:uid="{5170CBB3-3201-824F-B11A-130A95ABD12B}"/>
+    <workbookView xWindow="2960" yWindow="2040" windowWidth="27840" windowHeight="16940" xr2:uid="{5170CBB3-3201-824F-B11A-130A95ABD12B}"/>
   </bookViews>
   <sheets>
     <sheet name="输入-报告" sheetId="1" r:id="rId1"/>
@@ -115,16 +115,17 @@
     <t>123</t>
   </si>
   <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>张三,李四,王五</t>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>茶歇</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>张三,李四,王五</t>
-  </si>
-  <si>
-    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,9 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C76F2C47-151F-A84B-9BFF-33463AFFFAE1}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F4" sqref="F4"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -603,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -611,17 +612,18 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>